--- a/biology/Zoologie/Euonychophora/Euonychophora.xlsx
+++ b/biology/Zoologie/Euonychophora/Euonychophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euonychophora (Onychophores vrais) sont un ordre  d'Onychophora représentant l’ensemble des onychophores actuels. Tous les autres onychophores connus appartiennent à l’ordre fossile des Ontonychophora.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leurs lobopodes (pieds) possèdent une paire de griffes et un coussinet, et sont couverts de pustules[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leurs lobopodes (pieds) possèdent une paire de griffes et un coussinet, et sont couverts de pustules.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (mai 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (mai 2017) :
 Peripatidae Evans, 1902 (incluant le genre fossile Cretoperipatus)
 Peripatopsidae Bouvier, 1907</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) George Evelyn Hutchinson, « Restudy of some Burgess shale fossils », Proceedings of the United States National Museum, Washington, Inconnu, vol. 78, no 2854,‎ 1930, p. 1–24 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.78-2854.1, lire en ligne)</t>
         </is>
